--- a/TestData/CandidateLogin.xlsx
+++ b/TestData/CandidateLogin.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15555" windowHeight="4770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ACL_TD1</t>
   </si>
@@ -30,44 +31,26 @@
     <t>Password</t>
   </si>
   <si>
-    <t>ACL_TD2</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>i2148181@mvrht.net</t>
-  </si>
-  <si>
-    <t>Test@123</t>
-  </si>
-  <si>
-    <t>i1794858@mvrht.net</t>
-  </si>
-  <si>
-    <t>ACL_TD3</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Screenshot</t>
   </si>
   <si>
-    <t>j1356938@mvrht.net</t>
-  </si>
-  <si>
     <t>Test@1234</t>
   </si>
   <si>
-    <t>http://temp.clidiem.com/</t>
+    <t>sailaja@clidiem.com</t>
+  </si>
+  <si>
+    <t>//http://localhost:15860</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,10 +155,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -268,7 +251,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -303,7 +285,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,14 +460,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
@@ -496,7 +477,7 @@
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1" s="4"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -508,72 +489,43 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="1:8">
+      <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="C5" s="6"/>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C5" s="5"/>
       <c r="D5" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3" display="http://temp.clidiem.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -581,24 +533,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
